--- a/association_rules.xlsx
+++ b/association_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,40 +517,42 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="D2" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7878913588723905</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.000188208392834</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001479543845672726</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.000698980776279</v>
+        <v>0.119837969105981</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K2" t="n">
-        <v>0.09132734251880516</v>
+        <v>0.4874866123144849</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7867284362085055</v>
+        <v>0.716717508834456</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006984925434184169</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8930093781283936</v>
+        <v>0.858358754417228</v>
       </c>
     </row>
     <row r="3">
@@ -561,68 +563,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9981273973843969</v>
+        <v>0.716717508834456</v>
       </c>
       <c r="G3" t="n">
-        <v>1.000188208392834</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001479543845672726</v>
+        <v>0.119837969105981</v>
       </c>
       <c r="J3" t="n">
-        <v>1.100299231842606</v>
+        <v>1.53701955487869</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0008865340830973822</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7867284362085055</v>
+        <v>0.716717508834456</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09115632269836317</v>
+        <v>0.3493901903681859</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8930093781283936</v>
+        <v>0.858358754417228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>TESLA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
-        </is>
-      </c>
       <c r="C4" t="n">
+        <v>0.4347873671788381</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.7877430990097597</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.5645892715238091</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="F4" t="n">
-        <v>0.716717508834456</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1.269449394424477</v>
@@ -631,28 +633,30 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.119837969105981</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.53701955487869</v>
+        <v>0.09228661914708591</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.3755346017848122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.716717508834456</v>
+        <v>0.5519405599685885</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3493901903681859</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.858358754417228</v>
+        <v>0.7759702799842942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -661,192 +665,190 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.5097001679744565</v>
       </c>
       <c r="D5" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.4128507596918407</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.8099874899639636</v>
       </c>
       <c r="G5" t="n">
-        <v>1.269449394424477</v>
+        <v>1.028238128626155</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.119837969105981</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01133796980584723</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.117068033836221</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4874866123144849</v>
+        <v>0.05601192047625966</v>
       </c>
       <c r="L5" t="n">
-        <v>0.716717508834456</v>
+        <v>0.4667129285952512</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.1047993768420597</v>
       </c>
       <c r="N5" t="n">
-        <v>0.858358754417228</v>
+        <v>0.6670403184212279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>TESLA, Battery Electric Vehicle BEV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
-      </c>
       <c r="C6" t="n">
+        <v>0.4347873671788381</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.5645892715238091</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.9979395767805055</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9981457913678159</v>
+        <v>0.7248361077365904</v>
       </c>
       <c r="G6" t="n">
-        <v>1.000206640353894</v>
+        <v>1.28382904935526</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001164265436270906</v>
+        <v>0.06967330001569363</v>
       </c>
       <c r="J6" t="n">
-        <v>1.111214338953595</v>
+        <v>1.582368692689445</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0004744891408681257</v>
+        <v>0.3911450011300953</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5641141670397926</v>
+        <v>0.4605921093809764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1000836067849187</v>
+        <v>0.3680360306545452</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7814258649092486</v>
+        <v>0.6415143800067371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.4347873671788381</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.5645892715238091</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.9979395767805055</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9981457913678159</v>
+        <v>0.7248361077365904</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000206640353894</v>
+        <v>1.28382904935526</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001164265436270906</v>
+        <v>0.06967330001569363</v>
       </c>
       <c r="J7" t="n">
-        <v>1.111214338953595</v>
+        <v>1.582368692689445</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004744891408681257</v>
+        <v>0.3911450011300953</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5641141670397926</v>
+        <v>0.4605921093809764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1000836067849187</v>
+        <v>0.3680360306545452</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7814258649092486</v>
+        <v>0.6415143800067371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="D8" t="n">
         <v>0.5645892715238091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7167307168578085</v>
+        <v>0.7248361077365904</v>
       </c>
       <c r="G8" t="n">
-        <v>1.269472788463327</v>
+        <v>1.28382904935526</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1196239452572835</v>
+        <v>0.06967330001569363</v>
       </c>
       <c r="J8" t="n">
-        <v>1.537091221633196</v>
+        <v>1.582368692689445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9931661476667156</v>
+        <v>0.3911450011300953</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7157777039074068</v>
+        <v>0.4605921093809764</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3494205249982002</v>
+        <v>0.3680360306545452</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8574382541128123</v>
+        <v>0.6415143800067371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -855,13 +857,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="D9" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -873,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1196157645092013</v>
+        <v>0.06689267381874284</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -881,145 +883,147 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.4863173502540282</v>
+        <v>0.3099317685968788</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7153885650427375</v>
+        <v>0.4000664471895859</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8576942825213687</v>
+        <v>0.7000332235947929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>King, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4128507596918407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.2993323848090183</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7153885650427375</v>
+        <v>0.7250377473749726</v>
       </c>
       <c r="G10" t="n">
-        <v>1.269449394424477</v>
+        <v>1.284186193297861</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1196157645092013</v>
+        <v>0.06624127514655082</v>
       </c>
       <c r="J10" t="n">
-        <v>1.533520938266685</v>
+        <v>1.583529100156053</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.376900292925733</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7153885650427375</v>
+        <v>0.4414231079611243</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3479058713536157</v>
+        <v>0.3684991327905168</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8576942825213687</v>
+        <v>0.6276074964318836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, King</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.2993323848090183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.2993323848090183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9981457913678159</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1.269472788463327</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1196239452572835</v>
-      </c>
-      <c r="J11" t="n">
-        <v>115.268598726191</v>
+        <v>0.0635353643655803</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>0.4875199524447358</v>
+        <v>0.3029352240468332</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7157777039074068</v>
+        <v>0.3799873146274427</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9913246104225193</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8574382541128123</v>
+        <v>0.6899936573137213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>2023, Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.002064677328603</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00105019806107487</v>
+        <v>0.05288671407535991</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1027,293 +1031,293 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.004202373904519835</v>
+        <v>0.2826939774001989</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5107525343556586</v>
+        <v>0.3163007037361442</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7553762671778292</v>
+        <v>0.6581503518680721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.285832568010621</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.8717120596657122</v>
       </c>
       <c r="G13" t="n">
-        <v>1.269449394424477</v>
+        <v>1.543975600728275</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09228661914708591</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.08778569522918203</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.394011372710593</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3755346017848122</v>
+        <v>0.4933316130166374</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5519405599685885</v>
+        <v>0.4144038621344623</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.7053633915194103</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7759702799842942</v>
+        <v>0.6565152852838081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.285832568010621</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9976688446005844</v>
+        <v>0.8717120596657122</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9997287088454848</v>
+        <v>1.106594346255152</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0001177109317185288</v>
+        <v>0.02400106365747368</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8838635210724284</v>
+        <v>1.654535106239522</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0004798805528223802</v>
+        <v>0.1348794176243014</v>
       </c>
       <c r="L14" t="n">
-        <v>0.434228389327922</v>
+        <v>0.3022320217487922</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1313963934009386</v>
+        <v>0.3956006154062027</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7161691289063059</v>
+        <v>0.5940063817009282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TESLA, WA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.285832568010621</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.8717120596657122</v>
       </c>
       <c r="G15" t="n">
-        <v>1.269449394424477</v>
+        <v>1.543975600728275</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09207148469656734</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.08778569522918203</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.394011372710593</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3748623868630926</v>
+        <v>0.4933316130166374</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5506539007520613</v>
+        <v>0.4144038621344623</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.7053633915194103</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7753269503760307</v>
+        <v>0.6565152852838081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>2023, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9976688446005844</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1.268866192765803</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09191443002509952</v>
-      </c>
-      <c r="J16" t="n">
-        <v>91.68502058311782</v>
+        <v>0.1084885466377524</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>0.3748940183978657</v>
+        <v>0.5799010070410484</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5509767419370436</v>
+        <v>0.4413185109019038</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9890930929213956</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7746779179277319</v>
+        <v>0.720659255450952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>TESLA, King</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2384428339622462</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.2384428339622462</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9976688446005844</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9997287088454848</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0001177109317185288</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8838635210724284</v>
+        <v>0.05061113700015679</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>-0.0004798805528223802</v>
+        <v>0.2787143374864097</v>
       </c>
       <c r="L17" t="n">
-        <v>0.434228389327922</v>
+        <v>0.3026911111782295</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.1313963934009386</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7161691289063059</v>
+        <v>0.6513455555891148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, King</t>
+          <t>TESLA, MODEL Y</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1.002064677328603</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0008506472914550089</v>
+        <v>0.04447526006635344</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1321,723 +1325,735 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.003509198476375613</v>
+        <v>0.2685215841846409</v>
       </c>
       <c r="L18" t="n">
-        <v>0.413703163295473</v>
+        <v>0.2659941405660092</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7068515816477365</v>
+        <v>0.6329970702830046</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8099874899639636</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1.030167222461445</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01208984370638583</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.124831363668289</v>
+        <v>0.1184318564919846</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K19" t="n">
-        <v>0.05972633336025097</v>
+        <v>0.7150381959703102</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4674925102916138</v>
+        <v>0.4819253373608693</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1109778476136996</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6675319481471709</v>
+        <v>0.7409626686804347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WA, King</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8099874899639636</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1.028238128626155</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01133796980584723</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.117068033836221</v>
+        <v>0.1184318564919846</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>0.05601192047625966</v>
+        <v>0.7150381959703102</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4667129285952512</v>
+        <v>0.4819253373608693</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1047993768420597</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6670403184212279</v>
+        <v>0.7409626686804347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8099874899639636</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1.028238128626155</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01133796980584723</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.117068033836221</v>
+        <v>0.1184318564919846</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K21" t="n">
-        <v>0.05601192047625966</v>
+        <v>0.7150381959703102</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4667129285952512</v>
+        <v>0.4819253373608693</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1047993768420597</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6670403184212279</v>
+        <v>0.7409626686804347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Clean Alternative Fuel Vehicle Eligible</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3332270605421816</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E22" t="n">
-        <v>0.332494254131553</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9978008796481407</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9998610165028105</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-4.621763772355569e-05</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.9369306312646597</v>
+        <v>0.04447526006635344</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K22" t="n">
-        <v>-0.0002084275411429685</v>
+        <v>0.2685215841846409</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3329362659144621</v>
+        <v>0.2659941405660092</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.06731487543555913</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6654908135640449</v>
+        <v>0.6329970702830046</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>Eligibility unknown as battery range has not been researched, MODEL Y</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0.1988808047546764</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.4347873671788381</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.5645892715238091</v>
-      </c>
       <c r="E23" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7248361077365904</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28382904935526</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06967330001569363</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.582368692689445</v>
+        <v>0.1124099432729821</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K23" t="n">
-        <v>0.3911450011300953</v>
+        <v>0.7055287604837368</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4605921093809764</v>
+        <v>0.4574208446881396</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3680360306545452</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6415143800067371</v>
+        <v>0.7287104223440698</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7248361077365904</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G24" t="n">
-        <v>1.28382904935526</v>
+        <v>3.011753715465234</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06967330001569363</v>
+        <v>0.1328459215789932</v>
       </c>
       <c r="J24" t="n">
-        <v>1.582368692689445</v>
+        <v>13.46882682704196</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3911450011300953</v>
+        <v>0.8450311897869943</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4605921093809764</v>
+        <v>0.6104311503183969</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3680360306545452</v>
+        <v>0.9257544838283721</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6415143800067371</v>
+        <v>0.7901104442242557</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TESLA, Eligibility unknown as battery range has not been researched</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G25" t="n">
-        <v>1.269449394424477</v>
+        <v>1.681138794440298</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06689267381874284</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.08057956430243296</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.563142482233387</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3099317685968788</v>
+        <v>0.5125655668285859</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4000664471895859</v>
+        <v>0.3457332406855932</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.8832204413187358</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7000332235947929</v>
+        <v>0.6507052131465734</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA, MODEL Y</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7248361077365904</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28382904935526</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06967330001569363</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.582368692689445</v>
+        <v>0.04221382328367265</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K26" t="n">
-        <v>0.3911450011300953</v>
+        <v>0.2649504621159922</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4605921093809764</v>
+        <v>0.2524691171584765</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3680360306545452</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6415143800067371</v>
+        <v>0.6262345585792383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV, MODEL Y</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>TESLA</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
-        </is>
-      </c>
       <c r="C27" t="n">
+        <v>0.1988808047546764</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.4347873671788381</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.5635424052229111</v>
-      </c>
       <c r="E27" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.72328200413698</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1.283456218083328</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06945275964605158</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.577264945909563</v>
+        <v>0.1124099432729821</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K27" t="n">
-        <v>0.3907446765877834</v>
+        <v>0.7055287604837368</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4598540145985401</v>
+        <v>0.4574208446881396</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3659911084733268</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6406562770433695</v>
+        <v>0.7287104223440698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TESLA, WA</t>
+          <t>TESLA, MODEL Y</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D28" t="n">
         <v>0.5645892715238091</v>
       </c>
       <c r="E28" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7249720265911933</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G28" t="n">
-        <v>1.284069788705896</v>
+        <v>1.681138794440298</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06956983876561429</v>
+        <v>0.08057956430243296</v>
       </c>
       <c r="J28" t="n">
-        <v>1.583150699470807</v>
+        <v>8.563142482233387</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3907027491782342</v>
+        <v>0.5125655668285859</v>
       </c>
       <c r="L28" t="n">
-        <v>0.45983161703312</v>
+        <v>0.3457332406855932</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3683481930467734</v>
+        <v>0.8832204413187358</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6409839357391065</v>
+        <v>0.6507052131465734</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TESLA, Eligibility unknown as battery range has not been researched</t>
+          <t>TESLA, Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E29" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9978559241419922</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9999161746457805</v>
+        <v>1.681138794440298</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.636309413750482e-05</v>
+        <v>0.08057956430243296</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9609842915767847</v>
+        <v>8.563142482233387</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0001223947868927158</v>
+        <v>0.5125655668285859</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3149099399599733</v>
+        <v>0.3457332406855932</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.04059973588038389</v>
+        <v>0.8832204413187358</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6564895447677603</v>
+        <v>0.6507052131465734</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="E30" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F30" t="n">
-        <v>0.72328200413698</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G30" t="n">
-        <v>1.283456218083328</v>
+        <v>3.011753715465234</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06945275964605158</v>
+        <v>0.1328459215789932</v>
       </c>
       <c r="J30" t="n">
-        <v>1.577264945909563</v>
+        <v>13.46882682704196</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3907446765877834</v>
+        <v>0.8450311897869943</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4598540145985401</v>
+        <v>0.6104311503183969</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3659911084733268</v>
+        <v>0.9257544838283721</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6406562770433695</v>
+        <v>0.7901104442242557</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TESLA, Eligibility unknown as battery range has not been researched</t>
+          <t>MODEL Y</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E31" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9978559241419922</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G31" t="n">
-        <v>1.269104126331369</v>
+        <v>1.681138794440298</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06668185574366767</v>
+        <v>0.08057956430243296</v>
       </c>
       <c r="J31" t="n">
-        <v>99.68492018582855</v>
+        <v>8.563142482233387</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3096188379681429</v>
+        <v>0.5125655668285859</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3996142147940766</v>
+        <v>0.3457332406855932</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9899683924295085</v>
+        <v>0.8832204413187358</v>
       </c>
       <c r="N31" t="n">
-        <v>0.69890678011802</v>
+        <v>0.6507052131465734</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV</t>
+          <t>TESLA, MODEL Y</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E32" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F32" t="n">
-        <v>0.72328200413698</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G32" t="n">
-        <v>1.283456218083328</v>
+        <v>1.681138794440298</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06945275964605158</v>
+        <v>0.08057956430243296</v>
       </c>
       <c r="J32" t="n">
-        <v>1.577264945909563</v>
+        <v>8.563142482233387</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3907446765877834</v>
+        <v>0.5125655668285859</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4598540145985401</v>
+        <v>0.3457332406855932</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3659911084733268</v>
+        <v>0.8832204413187358</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6406562770433695</v>
+        <v>0.6507052131465734</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TESLA, Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, MODEL Y</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E33" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1.269449394424477</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06674925085173047</v>
+        <v>0.1124099432729821</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2045,243 +2061,243 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.3096262772101288</v>
+        <v>0.7055287604837368</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3992086743785678</v>
+        <v>0.4574208446881396</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0.6996043371892838</v>
+        <v>0.7287104223440698</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched</t>
+          <t>Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E34" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9978559241419922</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9999161746457805</v>
+        <v>1.681138794440298</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.636309413750482e-05</v>
+        <v>0.08057956430243296</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9609842915767847</v>
+        <v>8.563142482233387</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0001223947868927158</v>
+        <v>0.5125655668285859</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3149099399599733</v>
+        <v>0.3457332406855932</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.04059973588038389</v>
+        <v>0.8832204413187358</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6564895447677603</v>
+        <v>0.6507052131465734</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV, WA</t>
+          <t>Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="E35" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7249720265911933</v>
+        <v>0.9491529272834627</v>
       </c>
       <c r="G35" t="n">
-        <v>1.284069788705896</v>
+        <v>3.011753715465234</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06956983876561429</v>
+        <v>0.1328459215789932</v>
       </c>
       <c r="J35" t="n">
-        <v>1.583150699470807</v>
+        <v>13.46882682704196</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3907027491782342</v>
+        <v>0.8450311897869943</v>
       </c>
       <c r="L35" t="n">
-        <v>0.45983161703312</v>
+        <v>0.6104311503183969</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3683481930467734</v>
+        <v>0.9257544838283721</v>
       </c>
       <c r="N35" t="n">
-        <v>0.6409839357391065</v>
+        <v>0.7901104442242557</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TESLA, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, MODEL Y</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E36" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7249720265911933</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1.284069788705896</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06956983876561429</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.583150699470807</v>
+        <v>0.04221382328367265</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K36" t="n">
-        <v>0.3907027491782342</v>
+        <v>0.2649504621159922</v>
       </c>
       <c r="L36" t="n">
-        <v>0.45983161703312</v>
+        <v>0.2524691171584765</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3683481930467734</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>0.6409839357391065</v>
+        <v>0.6262345585792383</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, King</t>
+          <t>TESLA, King</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.2384428339622462</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1741319337048123</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0.7302879722205592</v>
       </c>
       <c r="G37" t="n">
-        <v>1.271831028535117</v>
+        <v>1.293485386729957</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06397691848281412</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.03950966777799511</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.614354139342468</v>
       </c>
       <c r="K37" t="n">
-        <v>0.305040544395094</v>
+        <v>0.2979356317679512</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3807002148455231</v>
+        <v>0.2768832662449683</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0.3805572298979555</v>
       </c>
       <c r="N37" t="n">
-        <v>0.6903501074227616</v>
+        <v>0.5193551467606011</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched, King</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA, King</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1741319337048123</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1741319337048123</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1.002064677328603</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0006167513960071425</v>
+        <v>0.03696070461162143</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2289,147 +2305,145 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.002940657131602716</v>
+        <v>0.2570106650840934</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2999504095976502</v>
+        <v>0.221051677791537</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6499752047988251</v>
+        <v>0.6105258388957685</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, King</t>
+          <t>TESLA, King, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.2384428339622462</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1741319337048123</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0.7302879722205592</v>
       </c>
       <c r="G39" t="n">
-        <v>1.002064677328603</v>
+        <v>1.293485386729957</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0006167513960071425</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.03950966777799511</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.614354139342468</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002940657131602716</v>
+        <v>0.2979356317679512</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2999504095976502</v>
+        <v>0.2768832662449683</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0.3805572298979555</v>
       </c>
       <c r="N39" t="n">
-        <v>0.6499752047988251</v>
+        <v>0.5193551467606011</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA, King</t>
+          <t>TESLA, King</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.2384428339622462</v>
       </c>
       <c r="D40" t="n">
         <v>0.5645892715238091</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1741319337048123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7250377473749726</v>
+        <v>0.7302879722205592</v>
       </c>
       <c r="G40" t="n">
-        <v>1.284186193297861</v>
+        <v>1.293485386729957</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06624127514655082</v>
+        <v>0.03950966777799511</v>
       </c>
       <c r="J40" t="n">
-        <v>1.583529100156053</v>
+        <v>1.614354139342468</v>
       </c>
       <c r="K40" t="n">
-        <v>0.376900292925733</v>
+        <v>0.2979356317679512</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4414231079611243</v>
+        <v>0.2768832662449683</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3684991327905168</v>
+        <v>0.3805572298979555</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6276074964318836</v>
+        <v>0.5193551467606011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA, King</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>King</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5097001679744565</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1.269449394424477</v>
+        <v>1.961937748566947</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0635353643655803</v>
+        <v>0.07898420903727678</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2437,49 +2451,49 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.3029352240468332</v>
+        <v>0.5844512385349722</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3799873146274427</v>
+        <v>0.316055791026383</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0.6899936573137213</v>
+        <v>0.6580278955131915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, King</t>
+          <t>MODEL 3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1.269449394424477</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0635353643655803</v>
+        <v>0.08745894330304657</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2487,193 +2501,199 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.3029352240468332</v>
+        <v>0.6686820579509437</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3799873146274427</v>
+        <v>0.3558897243107769</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6899936573137213</v>
+        <v>0.6779448621553885</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, King</t>
+          <t>TESLA, MODEL 3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7250377473749726</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1.284186193297861</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06624127514655082</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.583529100156053</v>
+        <v>0.03284385944583006</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K43" t="n">
-        <v>0.376900292925733</v>
+        <v>0.2511132503532563</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4414231079611243</v>
+        <v>0.1964299737231568</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3684991327905168</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>0.6276074964318836</v>
+        <v>0.5982149868615784</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, King</t>
+          <t>MODEL 3, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7250377473749726</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1.286571765771879</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.06667347469417234</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.587336409308141</v>
+        <v>0.08745894330304657</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K44" t="n">
-        <v>0.3793594263850533</v>
+        <v>0.6686820579509437</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4421056330604071</v>
+        <v>0.3558897243107769</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3700138205512077</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6280999391359829</v>
+        <v>0.6779448621553885</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>MODEL 3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2853281687929156</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9982353332889391</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>1.000296367150191</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>8.453684231141123e-05</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.167599074986688</v>
+        <v>0.03284385944583006</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K45" t="n">
-        <v>0.0004148597786117232</v>
+        <v>0.2511132503532563</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2857728381881958</v>
+        <v>0.1964299737231568</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1435416304938398</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6420763063415866</v>
+        <v>0.5982149868615784</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, 2023</t>
+          <t>MODEL 3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1.771199083009549</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1084885466377524</v>
+        <v>0.08745894330304657</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2681,120 +2701,118 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.5799010070410484</v>
+        <v>0.6686820579509437</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4413185109019038</v>
+        <v>0.3558897243107769</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0.720659255450952</v>
+        <v>0.6779448621553885</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2023, King</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1520763641381673</v>
       </c>
       <c r="D47" t="n">
         <v>0.5645892715238091</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8717120596657122</v>
+        <v>0.8758096310898338</v>
       </c>
       <c r="G47" t="n">
-        <v>1.543975600728275</v>
+        <v>1.551233215477245</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08778569522918203</v>
+        <v>0.04732926072857414</v>
       </c>
       <c r="J47" t="n">
-        <v>3.394011372710593</v>
+        <v>3.505994323852501</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4933316130166374</v>
+        <v>0.4190844454206265</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4144038621344623</v>
+        <v>0.228269911432253</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7053633915194103</v>
+        <v>0.7147742102157293</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6565152852838081</v>
+        <v>0.5558577692149858</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023, Eligibility unknown as battery range has not been researched</t>
+          <t>2023, King</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1520763641381673</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.8758096310898338</v>
       </c>
       <c r="G48" t="n">
-        <v>1.269449394424477</v>
+        <v>1.551233215477245</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05288671407535991</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04732926072857414</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.505994323852501</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2826939774001989</v>
+        <v>0.4190844454206265</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3163007037361442</v>
+        <v>0.228269911432253</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0.7147742102157293</v>
       </c>
       <c r="N48" t="n">
-        <v>0.6581503518680721</v>
+        <v>0.5558577692149858</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2023, King</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2803,46 +2821,46 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1520763641381673</v>
       </c>
       <c r="D49" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8717120596657122</v>
+        <v>0.8758096310898338</v>
       </c>
       <c r="G49" t="n">
-        <v>1.106594346255152</v>
+        <v>1.111796005818114</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02400106365747368</v>
+        <v>0.01339283800099494</v>
       </c>
       <c r="J49" t="n">
-        <v>1.654535106239522</v>
+        <v>1.709125295728669</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1348794176243014</v>
+        <v>0.1185890081495965</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3022320217487922</v>
+        <v>0.1651191052066496</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3956006154062027</v>
+        <v>0.4149053890319611</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5940063817009282</v>
+        <v>0.5224437626589946</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2023, King, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2851,142 +2869,148 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="D50" t="n">
         <v>0.5645892715238091</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8717120596657122</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1.543975600728275</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.08778569522918203</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.394011372710593</v>
+        <v>0.05799233070529564</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K50" t="n">
-        <v>0.4933316130166374</v>
+        <v>0.5023138871657489</v>
       </c>
       <c r="L50" t="n">
-        <v>0.4144038621344623</v>
+        <v>0.2359059073401377</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7053633915194103</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6565152852838081</v>
+        <v>0.6179529536700689</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023, Eligibility unknown as battery range has not been researched</t>
+          <t>2023, Eligibility unknown as battery range has not been researched, King</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="F51" t="n">
-        <v>0.998281196287384</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1.000342324840929</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>8.511917915771106e-05</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.198754229101911</v>
+        <v>0.02827048483574585</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K51" t="n">
-        <v>0.0004557687117365058</v>
+        <v>0.2448712951729513</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2491420727522306</v>
+        <v>0.1690778942281555</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1658006489377018</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6237650938951296</v>
+        <v>0.5845389471140777</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023, Eligibility unknown as battery range has not been researched</t>
+          <t>2023, TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="F52" t="n">
-        <v>0.998281196287384</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1.26964500064145</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05282599937944998</v>
-      </c>
-      <c r="J52" t="n">
-        <v>124.3492955065648</v>
+        <v>0.05797161175899149</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K52" t="n">
-        <v>0.2828556139945372</v>
+        <v>0.5022863134088301</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3161772266747316</v>
+        <v>0.2358216251295839</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9919581369888243</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>0.6573153189958117</v>
+        <v>0.617910812564792</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023, WA</t>
+          <t>2023, Eligibility unknown as battery range has not been researched, TESLA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2995,409 +3019,419 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.2853281687929156</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="D53" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8717521096694574</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1.106645187708153</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02397013717363605</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.655051794171235</v>
+        <v>0.02826038462680132</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K53" t="n">
-        <v>0.1348423145290153</v>
+        <v>0.2448578533356023</v>
       </c>
       <c r="L53" t="n">
-        <v>0.301740410425145</v>
+        <v>0.1690174876921683</v>
       </c>
       <c r="M53" t="n">
-        <v>0.395789301868496</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5937545772908585</v>
+        <v>0.5845087438460841</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, 2023</t>
+          <t>2023, TESLA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="F54" t="n">
-        <v>0.998281196287384</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1.000342324840929</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>8.511917915771106e-05</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.198754229101911</v>
+        <v>0.05797161175899149</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K54" t="n">
-        <v>0.0004557687117365058</v>
+        <v>0.5022863134088301</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2491420727522306</v>
+        <v>0.2358216251295839</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1658006489377018</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0.6237650938951296</v>
+        <v>0.617910812564792</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023, WA</t>
+          <t>2023, TESLA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2853281687929156</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="D55" t="n">
         <v>0.5645892715238091</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8717521096694574</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>1.544046537258183</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08764221012933252</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.395071274497967</v>
+        <v>0.05797161175899149</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K55" t="n">
-        <v>0.4930250660924708</v>
+        <v>0.5022863134088301</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4137439745446774</v>
+        <v>0.2358216251295839</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7054553736437033</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6561560403381885</v>
+        <v>0.617910812564792</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2023, TESLA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8702137577412266</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1.54418505098478</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08765666022560051</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.362895690491299</v>
+        <v>0.02826038462680132</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K56" t="n">
-        <v>0.4934546232035864</v>
+        <v>0.2448578533356023</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4141176470588235</v>
+        <v>0.1690174876921683</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7026372233823566</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>0.655796068173909</v>
+        <v>0.5845087438460841</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1287312456281436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8702137577412266</v>
+        <v>0.7991079340698292</v>
       </c>
       <c r="G57" t="n">
-        <v>1.54418505098478</v>
+        <v>1.014427082984739</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.08765666022560051</v>
+        <v>0.001830803213515947</v>
       </c>
       <c r="J57" t="n">
-        <v>3.362895690491299</v>
+        <v>1.056571846217261</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4934546232035864</v>
+        <v>0.01695290909725302</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4141176470588235</v>
+        <v>0.1569691202580854</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7026372233823566</v>
+        <v>0.05354282950070975</v>
       </c>
       <c r="N57" t="n">
-        <v>0.655796068173909</v>
+        <v>0.4812628679379923</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023, WA</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Eligibility unknown as battery range has not been researched</t>
+          <t>King, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.2853281687929156</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.4128507596918407</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1287312456281436</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8717521096694574</v>
+        <v>0.7991079340698292</v>
       </c>
       <c r="G58" t="n">
-        <v>1.544046537258183</v>
+        <v>1.935585475648145</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.08764221012933252</v>
+        <v>0.06222359342278848</v>
       </c>
       <c r="J58" t="n">
-        <v>3.395071274497967</v>
+        <v>2.922709951682461</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4930250660924708</v>
+        <v>0.5761793049156542</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4137439745446774</v>
+        <v>0.2891451657724289</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7054553736437033</v>
+        <v>0.6578517825813167</v>
       </c>
       <c r="N58" t="n">
-        <v>0.6561560403381885</v>
+        <v>0.5554592701088763</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Seattle, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>King</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1287312456281436</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5097001679744565</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1287312456281436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8702137577412266</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1.106764858553433</v>
+        <v>1.961937748566947</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02399444030608966</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.646800362335178</v>
+        <v>0.06311690810791777</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K59" t="n">
-        <v>0.1350743625156328</v>
+        <v>0.5627423565522288</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3020961561801064</v>
+        <v>0.2525626902178986</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3927618533056485</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>0.593281599722733</v>
+        <v>0.6262813451089493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, 2023, Eligibility unknown as battery range has not been researched</t>
+          <t>Seattle, King</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1287312456281436</v>
       </c>
       <c r="F60" t="n">
-        <v>0.998281196287384</v>
+        <v>0.7991079340698292</v>
       </c>
       <c r="G60" t="n">
-        <v>1.000342324840929</v>
+        <v>1.014427082984739</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>8.511917915771106e-05</v>
+        <v>0.001830803213515947</v>
       </c>
       <c r="J60" t="n">
-        <v>1.198754229101911</v>
+        <v>1.056571846217261</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0004557687117365058</v>
+        <v>0.01695290909725302</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2491420727522306</v>
+        <v>0.1569691202580854</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1658006489377018</v>
+        <v>0.05354282950070975</v>
       </c>
       <c r="N60" t="n">
-        <v>0.6237650938951296</v>
+        <v>0.4812628679379923</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, 2023, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, 2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>1.771199083009549</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1083020761210151</v>
+        <v>0.02716451195631957</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3405,49 +3439,49 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.579570430519575</v>
+        <v>0.2434081285196665</v>
       </c>
       <c r="L61" t="n">
-        <v>0.4405599710069195</v>
+        <v>0.1624633785375577</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7202799855034598</v>
+        <v>0.5812316892687789</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023, Eligibility unknown as battery range has not been researched, WA</t>
+          <t>2024, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1.269449394424477</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05279581219485913</v>
+        <v>0.05572360608499199</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3455,120 +3489,118 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.2825328257716351</v>
+        <v>0.4993124372462565</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3157570449122594</v>
+        <v>0.2266770052844945</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>0.6578785224561298</v>
+        <v>0.6133385026422473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, 2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Eligibility unknown as battery range has not been researched, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1676651550551746</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="F63" t="n">
-        <v>0.998281196287384</v>
+        <v>0.7633035334184759</v>
       </c>
       <c r="G63" t="n">
-        <v>1.771439357598139</v>
+        <v>1.351962518448753</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1083211242283783</v>
+        <v>0.03331745753224388</v>
       </c>
       <c r="J63" t="n">
-        <v>253.9310286413113</v>
+        <v>1.839532016529806</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5800029996993404</v>
+        <v>0.3127761926473651</v>
       </c>
       <c r="L63" t="n">
-        <v>0.4410432082619664</v>
+        <v>0.2117899975588436</v>
       </c>
       <c r="M63" t="n">
-        <v>0.9960619227774147</v>
+        <v>0.4563834763330433</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7198297874469877</v>
+        <v>0.4949902693514853</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESLA, King</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1676651550551746</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0.7633035334184759</v>
       </c>
       <c r="G64" t="n">
-        <v>1.271831028535117</v>
+        <v>1.351962518448753</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05096287112718118</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.03331745753224388</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.839532016529806</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2806513290261307</v>
+        <v>0.3127761926473651</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3032589947650316</v>
+        <v>0.2117899975588436</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0.4563834763330433</v>
       </c>
       <c r="N64" t="n">
-        <v>0.6516294973825159</v>
+        <v>0.4949902693514853</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESLA, WA, King</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3577,75 +3609,73 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1676651550551746</v>
       </c>
       <c r="D65" t="n">
         <v>0.7877430990097597</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0.7633035334184759</v>
       </c>
       <c r="G65" t="n">
-        <v>1.269449394424477</v>
+        <v>0.9689752082601475</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.05061113700015679</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.004097663554343711</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8967472309821481</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2787143374864097</v>
+        <v>-0.03704290767092596</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3026911111782295</v>
+        <v>0.1546711907295051</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>-0.1151414417023244</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6513455555891148</v>
+        <v>0.4628834559780168</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV, King</t>
+          <t>TESLA, Clean Alternative Fuel Vehicle Eligible</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1196377842598893</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1196377842598893</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>1.002064677328603</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0004912931516178887</v>
+        <v>0.02539394532834306</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3653,49 +3683,49 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0.002705539795803557</v>
+        <v>0.2411017842375236</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2389351414756959</v>
+        <v>0.1518741127790027</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>0.619467570737848</v>
+        <v>0.5759370563895013</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESLA, King</t>
+          <t>King, MODEL Y</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1.002064677328603</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0004912931516178887</v>
+        <v>0.06549872828153926</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3703,49 +3733,49 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0.002705539795803557</v>
+        <v>0.6392964402200237</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2389351414756959</v>
+        <v>0.2665287673331801</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0.619467570737848</v>
+        <v>0.6332643836665901</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TESLA, King</t>
+          <t>King, MODEL Y</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1.269449394424477</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05061113700015679</v>
+        <v>0.06549872828153926</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3753,133 +3783,137 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0.2787143374864097</v>
+        <v>0.6392964402200237</v>
       </c>
       <c r="L68" t="n">
-        <v>0.3026911111782295</v>
+        <v>0.2665287673331801</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0.6513455555891148</v>
+        <v>0.6332643836665901</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, Clean Alternative Fuel Vehicle Eligible</t>
+          <t>TESLA, King, MODEL Y</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.2231157596204634</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2226874961337324</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9980805323323665</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1.000141246579593</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>3.144940502619598e-05</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.073434710173984</v>
+        <v>0.02459703884261946</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K69" t="n">
-        <v>0.0001817859398790422</v>
+        <v>0.2400779341004746</v>
       </c>
       <c r="L69" t="n">
-        <v>0.223051551895066</v>
+        <v>0.1471080370896131</v>
       </c>
       <c r="M69" t="n">
-        <v>0.06841097039062706</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6106139031453648</v>
+        <v>0.5735540185448066</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Plug-in Hybrid Electric Vehicle PHEV</t>
+          <t>King, MODEL Y</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.2122569009902404</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2116716075583747</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9972425234273415</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.999301507456581</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.0001479543845674391</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.74721331812008</v>
+        <v>0.02459703884261946</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K70" t="n">
-        <v>-0.0008865340830983798</v>
+        <v>0.2400779341004746</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2119843119314147</v>
+        <v>0.1471080370896131</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.3383059104405527</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>0.6046755822774755</v>
+        <v>0.5735540185448066</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>King, Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D71" t="n">
         <v>0.4347873671788381</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3891,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1184318564919846</v>
+        <v>0.06549872828153926</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3899,199 +3933,193 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.7150381959703102</v>
+        <v>0.6392964402200237</v>
       </c>
       <c r="L71" t="n">
-        <v>0.4819253373608693</v>
+        <v>0.2665287673331801</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>0.7409626686804347</v>
+        <v>0.6332643836665901</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1344604593839668</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.8404643097285628</v>
       </c>
       <c r="G72" t="n">
-        <v>2.299974827899443</v>
+        <v>1.06692690902031</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1184318564919846</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.007088918212529174</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.330466559734077</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7150381959703102</v>
+        <v>0.0724734918470909</v>
       </c>
       <c r="L72" t="n">
-        <v>0.4819253373608693</v>
+        <v>0.1396564600448096</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0.2483839652460922</v>
       </c>
       <c r="N72" t="n">
-        <v>0.7409626686804347</v>
+        <v>0.4919618960222747</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1344604593839668</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.8404643097285628</v>
       </c>
       <c r="G73" t="n">
-        <v>1.269449394424477</v>
+        <v>1.488629614693484</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04447526006635344</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.03709428436958057</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.729237123902334</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2685215841846409</v>
+        <v>0.3792330839818396</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2659941405660092</v>
+        <v>0.1928351616229691</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0.6335972454565714</v>
       </c>
       <c r="N73" t="n">
-        <v>0.6329970702830046</v>
+        <v>0.520313065786413</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, MODEL Y</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1344604593839668</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0.8404643097285628</v>
       </c>
       <c r="G74" t="n">
-        <v>2.299974827899443</v>
+        <v>1.488629614693484</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1184318564919846</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.03709428436958057</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.729237123902334</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7150381959703102</v>
+        <v>0.3792330839818396</v>
       </c>
       <c r="L74" t="n">
-        <v>0.4819253373608693</v>
+        <v>0.1928351616229691</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0.6335972454565714</v>
       </c>
       <c r="N74" t="n">
-        <v>0.7409626686804347</v>
+        <v>0.520313065786413</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TESLA, MODEL Y</t>
+          <t>2022, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1.269449394424477</v>
+        <v>1.771199083009549</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04447526006635344</v>
+        <v>0.04920542557770868</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4099,49 +4127,49 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0.2685215841846409</v>
+        <v>0.4908852909303548</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2659941405660092</v>
+        <v>0.2001618218442633</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>0.6329970702830046</v>
+        <v>0.6000809109221317</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MODEL Y, WA</t>
+          <t>2022, Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>2.299974827899443</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1181736592302497</v>
+        <v>0.02398698622236971</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4149,195 +4177,193 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>0.7146252098211332</v>
+        <v>0.239300007510649</v>
       </c>
       <c r="L76" t="n">
-        <v>0.4808746757724005</v>
+        <v>0.1434594823159866</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>0.7404373378862001</v>
+        <v>0.5717297411579934</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, MODEL Y</t>
+          <t>King, MODEL Y</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TESLA, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F77" t="n">
-        <v>0.997819866466821</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G77" t="n">
-        <v>2.300322986000888</v>
+        <v>1.684577389260755</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1181874178043432</v>
+        <v>0.04478949646007241</v>
       </c>
       <c r="J77" t="n">
-        <v>259.720875406241</v>
+        <v>8.903070924081161</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7151214455376247</v>
+        <v>0.4596444385794697</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4814912223025841</v>
+        <v>0.1932743658210948</v>
       </c>
       <c r="M77" t="n">
-        <v>0.9961497126542644</v>
+        <v>0.8876792054643544</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7399090775761999</v>
+        <v>0.573154388556482</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TESLA, MODEL Y</t>
+          <t>King, MODEL Y</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F78" t="n">
-        <v>0.997819866466821</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G78" t="n">
-        <v>1.26905826706127</v>
+        <v>3.01791394492442</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04432753707226086</v>
+        <v>0.07369540096014218</v>
       </c>
       <c r="J78" t="n">
-        <v>98.03621086741842</v>
+        <v>14.00349471635165</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2682144425958761</v>
+        <v>0.7562862697152704</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2657577828719357</v>
+        <v>0.3435479086324533</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9897996873690643</v>
+        <v>0.9285892543071899</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6318660260708844</v>
+        <v>0.6504101359478274</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, MODEL Y, WA</t>
+          <t>King, Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G79" t="n">
-        <v>2.299974827899443</v>
+        <v>3.01791394492442</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1181736592302497</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.07369540096014218</v>
+      </c>
+      <c r="J79" t="n">
+        <v>14.00349471635165</v>
       </c>
       <c r="K79" t="n">
-        <v>0.7146252098211332</v>
+        <v>0.7562862697152704</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4808746757724005</v>
+        <v>0.3435479086324533</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0.9285892543071899</v>
       </c>
       <c r="N79" t="n">
-        <v>0.7404373378862001</v>
+        <v>0.6504101359478274</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TESLA, MODEL Y, WA</t>
+          <t>Eligibility unknown as battery range has not been researched, King, MODEL Y</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>TESLA, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1.269449394424477</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04437829806048593</v>
+        <v>0.0622954685031418</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4345,452 +4371,600 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.2683664935955671</v>
+        <v>0.6352245319243377</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2654142378205321</v>
+        <v>0.2534939970012367</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>0.6327071189102661</v>
+        <v>0.6267469985006183</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV, MODEL Y</t>
+          <t>TESLA, King, MODEL Y</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched, Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F81" t="n">
-        <v>0.997819866466821</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9998800425231448</v>
+        <v>1.684577389260755</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.508350639673917e-05</v>
+        <v>0.04478949646007241</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9450903754918357</v>
+        <v>8.903070924081161</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.0001517507668663358</v>
+        <v>0.4596444385794697</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2094140524464526</v>
+        <v>0.1932743658210948</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.05809986635361579</v>
+        <v>0.8876792054643544</v>
       </c>
       <c r="N81" t="n">
-        <v>0.6036648898894915</v>
+        <v>0.573154388556482</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>Eligibility unknown as battery range has not been researched, King, Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TESLA, WA</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F82" t="n">
-        <v>0.997819866466821</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>2.300322986000888</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1181874178043432</v>
-      </c>
-      <c r="J82" t="n">
-        <v>259.720875406241</v>
+        <v>0.0622954685031418</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K82" t="n">
-        <v>0.7151214455376247</v>
+        <v>0.6352245319243377</v>
       </c>
       <c r="L82" t="n">
-        <v>0.4814912223025841</v>
+        <v>0.2534939970012367</v>
       </c>
       <c r="M82" t="n">
-        <v>0.9961497126542644</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7399090775761999</v>
+        <v>0.6267469985006183</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MODEL Y, WA</t>
+          <t>TESLA, King, Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TESLA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G83" t="n">
-        <v>2.299974827899443</v>
+        <v>1.684577389260755</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1181736592302497</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04478949646007241</v>
+      </c>
+      <c r="J83" t="n">
+        <v>8.903070924081161</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7146252098211332</v>
+        <v>0.4596444385794697</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4808746757724005</v>
+        <v>0.1932743658210948</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0.8876792054643544</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7404373378862001</v>
+        <v>0.573154388556482</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>Eligibility unknown as battery range has not been researched, TESLA, King, MODEL Y</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F84" t="n">
-        <v>0.997819866466821</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9998800425231448</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.508350639673917e-05</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.9450903754918357</v>
+        <v>0.02339410395732566</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K84" t="n">
-        <v>-0.0001517507668663358</v>
+        <v>0.2385487916401499</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2094140524464526</v>
+        <v>0.1399136186535383</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.05809986635361579</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6036648898894915</v>
+        <v>0.5699568093267692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, MODEL Y</t>
+          <t>Eligibility unknown as battery range has not been researched, King, MODEL Y</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>TESLA</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F85" t="n">
-        <v>0.997819866466821</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9998800425231448</v>
+        <v>2.299974827899443</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-2.508350639673917e-05</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.9450903754918357</v>
+        <v>0.0622954685031418</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K85" t="n">
-        <v>-0.0001517507668663358</v>
+        <v>0.6352245319243377</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2094140524464526</v>
+        <v>0.2534939970012367</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.05809986635361579</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>0.6036648898894915</v>
+        <v>0.6267469985006183</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MODEL Y, WA</t>
+          <t>TESLA, King, MODEL Y</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G86" t="n">
-        <v>1.269449394424477</v>
+        <v>1.684577389260755</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.04437829806048593</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04478949646007241</v>
+      </c>
+      <c r="J86" t="n">
+        <v>8.903070924081161</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2683664935955671</v>
+        <v>0.4596444385794697</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2654142378205321</v>
+        <v>0.1932743658210948</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0.8876792054643544</v>
       </c>
       <c r="N86" t="n">
-        <v>0.6327071189102661</v>
+        <v>0.573154388556482</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>King, Battery Electric Vehicle BEV, MODEL Y</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Battery Electric Vehicle BEV, WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F87" t="n">
-        <v>0.997819866466821</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G87" t="n">
-        <v>1.26905826706127</v>
+        <v>1.684577389260755</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.04432753707226086</v>
+        <v>0.04478949646007241</v>
       </c>
       <c r="J87" t="n">
-        <v>98.03621086741842</v>
+        <v>8.903070924081161</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2682144425958761</v>
+        <v>0.4596444385794697</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2657577828719357</v>
+        <v>0.1932743658210948</v>
       </c>
       <c r="M87" t="n">
-        <v>0.9897996873690643</v>
+        <v>0.8876792054643544</v>
       </c>
       <c r="N87" t="n">
-        <v>0.6318660260708844</v>
+        <v>0.573154388556482</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TESLA, MODEL Y</t>
+          <t>King, MODEL Y</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Eligibility unknown as battery range has not been researched</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F88" t="n">
-        <v>0.997819866466821</v>
+        <v>0.95109432102821</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9998800425231448</v>
+        <v>1.684577389260755</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.508350639673917e-05</v>
+        <v>0.04478949646007241</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9450903754918357</v>
+        <v>8.903070924081161</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.0001517507668663358</v>
+        <v>0.4596444385794697</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2094140524464526</v>
+        <v>0.1932743658210948</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.05809986635361579</v>
+        <v>0.8876792054643544</v>
       </c>
       <c r="N88" t="n">
-        <v>0.6036648898894915</v>
+        <v>0.573154388556482</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MODEL Y</t>
+          <t>Eligibility unknown as battery range has not been researched, King, MODEL Y</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TESLA, Battery Electric Vehicle BEV, WA</t>
+          <t>Battery Electric Vehicle BEV</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.110215987551808</v>
       </c>
       <c r="F89" t="n">
-        <v>0.997819866466821</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>2.300322986000888</v>
+        <v>1.269449394424477</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1181874178043432</v>
-      </c>
-      <c r="J89" t="n">
-        <v>259.720875406241</v>
+        <v>0.02339410395732566</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K89" t="n">
-        <v>0.7151214455376247</v>
+        <v>0.2385487916401499</v>
       </c>
       <c r="L89" t="n">
-        <v>0.4814912223025841</v>
+        <v>0.1399136186535383</v>
       </c>
       <c r="M89" t="n">
-        <v>0.9961497126542644</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>0.7399090775761999</v>
+        <v>0.5699568093267692</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>King, MODEL Y</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Eligibility unknown as battery range has not been researched, TESLA, Battery Electric Vehicle BEV</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1158833410262145</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3151495829189487</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.110215987551808</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.95109432102821</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.01791394492442</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.07369540096014218</v>
+      </c>
+      <c r="J90" t="n">
+        <v>14.00349471635165</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.7562862697152704</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.3435479086324533</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9285892543071899</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.6504101359478274</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Not eligible due to low battery range</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Plug-in Hybrid Electric Vehicle PHEV</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1021836679340094</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2122569009902404</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.1021456000685222</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9996274564589737</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.709516872221445</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.08045641138103354</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2114.499413517059</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.8773108334862939</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.4811494149818443</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.9995270748274475</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.7404315823298321</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Snohomish</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Battery Electric Vehicle BEV</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1208274050563642</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7877430990097597</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1004848894366432</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.8316398865784499</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.055724750396254</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.005303934932235299</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.260731515776417</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.06003759495632145</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.1243493110352137</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.2068097073117477</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.4796001843113035</v>
       </c>
     </row>
   </sheetData>
